--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Discharge Medication Request Profile</t>
+    <t>Discharge MedicationRequest Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents a medication prescription made as part of the patient's discharge plan, categorized as community administration.</t>
+    <t>Profile for representing a medication prescription issued as part of the patient’s **discharge plan** following a stroke encounter.
+**Primary use-case**
+- Capture secondary prevention and chronic therapy prescriptions intended to be taken **after discharge** (community setting),
+  enabling:
+  - discharge medication reconciliation,
+  - continuity of care between hospital and primary care,
+  - registry submission and quality improvement (e.g., antithrombotic/statin at discharge),
+  - episode-linked analytics (tie to the index stroke Encounter).
+**Key elements and how to use them**
+- `status` (fixed to active): indicates the prescription is currently intended/valid at the time of discharge documentation.
+  - Use `stopped` or `cancelled` in your broader implementation if a discharge prescription is later withdrawn (not constrained here).
+- `category` (fixed to community): indicates the medication is intended for administration in the community/outpatient context.
+  - This helps distinguish discharge prescriptions from inpatient medication orders.
+- `medication` (required; bound to MedicationVS): identifies the prescribed agent or, if unavailable, a coarse category.
+  - Prefer specific SNOMED CT substance concepts (e.g., aspirin) when available.
+  - Use `MedicationCS` category codes only when the specific agent cannot be coded.
+- `subject` (required): the patient who will take the medication.
+- `encounter` (required): links the prescription to the index stroke admission encounter.
+- `authoredOn` (optional but recommended): the date/time the discharge prescription was authored.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
